--- a/models/calculation engines/cbix2/outputs/default/actual_price_determination_from_CBIX_price/final_specifications_to_viu_adjustment.xlsx
+++ b/models/calculation engines/cbix2/outputs/default/actual_price_determination_from_CBIX_price/final_specifications_to_viu_adjustment.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF46"/>
+  <dimension ref="A1:AF49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,12 +664,8 @@
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>38.21567701105842</v>
-      </c>
-      <c r="U2" t="n">
-        <v>10.97938147135129</v>
-      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
         <v>49.1950584824097</v>
       </c>
@@ -687,16 +683,12 @@
       <c r="AB2" t="n">
         <v>0</v>
       </c>
-      <c r="AC2" t="n">
-        <v>49.42949497798487</v>
-      </c>
+      <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="n">
         <v>0</v>
       </c>
       <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="n">
-        <v>49.42949497798487</v>
-      </c>
+      <c r="AF2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -766,12 +758,8 @@
       </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="n">
-        <v>33.0978333578624</v>
-      </c>
-      <c r="U3" t="n">
-        <v>11.9656440772585</v>
-      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
         <v>45.0634774351209</v>
       </c>
@@ -789,16 +777,12 @@
       <c r="AB3" t="n">
         <v>0</v>
       </c>
-      <c r="AC3" t="n">
-        <v>43.9933876263248</v>
-      </c>
+      <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="n">
-        <v>43.9933876263248</v>
-      </c>
+      <c r="AF3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -813,7 +797,7 @@
         <v>0.3625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09</v>
+        <v>0.08999999999999998</v>
       </c>
       <c r="E4" t="n">
         <v>0.0675</v>
@@ -868,12 +852,8 @@
       </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>18.84666832600431</v>
-      </c>
-      <c r="U4" t="n">
-        <v>6.539916594335488</v>
-      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
         <v>25.3865849203398</v>
       </c>
@@ -888,19 +868,13 @@
       <c r="AA4" t="n">
         <v>0</v>
       </c>
-      <c r="AB4" t="n">
-        <v>33.42864321672503</v>
-      </c>
+      <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
-      <c r="AD4" t="n">
-        <v>35.74281259614782</v>
-      </c>
+      <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="n">
-        <v>35.74281259614782</v>
-      </c>
+      <c r="AF4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -935,7 +909,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>83000</v>
+        <v>83000.00000000001</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -970,12 +944,8 @@
       </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="n">
-        <v>16.97137636370779</v>
-      </c>
-      <c r="U5" t="n">
-        <v>5.259564559863311</v>
-      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
         <v>22.2309409235711</v>
       </c>
@@ -993,16 +963,12 @@
       <c r="AB5" t="n">
         <v>0</v>
       </c>
-      <c r="AC5" t="n">
-        <v>24.43693362439515</v>
-      </c>
+      <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="n">
         <v>0</v>
       </c>
       <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="n">
-        <v>24.43693362439515</v>
-      </c>
+      <c r="AF5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1072,12 +1038,8 @@
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="n">
-        <v>40.23184789583858</v>
-      </c>
-      <c r="U6" t="n">
-        <v>12.01226717405452</v>
-      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
       <c r="V6" t="n">
         <v>52.2441150698931</v>
       </c>
@@ -1095,16 +1057,12 @@
       <c r="AB6" t="n">
         <v>0</v>
       </c>
-      <c r="AC6" t="n">
-        <v>51.47758817289709</v>
-      </c>
+      <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="n">
         <v>0</v>
       </c>
       <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="n">
-        <v>51.47758817289709</v>
-      </c>
+      <c r="AF6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1174,12 +1132,8 @@
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="n">
-        <v>30.57188595864085</v>
-      </c>
-      <c r="U7" t="n">
-        <v>9.706633796875948</v>
-      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
       <c r="V7" t="n">
         <v>40.2785197555168</v>
       </c>
@@ -1197,16 +1151,12 @@
       <c r="AB7" t="n">
         <v>0</v>
       </c>
-      <c r="AC7" t="n">
-        <v>48.56145052200278</v>
-      </c>
+      <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="n">
         <v>0</v>
       </c>
       <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="n">
-        <v>48.56145052200278</v>
-      </c>
+      <c r="AF7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1276,12 +1226,8 @@
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
-      <c r="T8" t="n">
-        <v>31.90007665394939</v>
-      </c>
-      <c r="U8" t="n">
-        <v>6.061549298620506</v>
-      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
       <c r="V8" t="n">
         <v>37.9616259525699</v>
       </c>
@@ -1299,16 +1245,12 @@
       <c r="AB8" t="n">
         <v>0</v>
       </c>
-      <c r="AC8" t="n">
-        <v>36.89971485408932</v>
-      </c>
+      <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="n">
         <v>0</v>
       </c>
       <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="n">
-        <v>36.89971485408932</v>
-      </c>
+      <c r="AF8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1378,12 +1320,8 @@
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
-      <c r="T9" t="n">
-        <v>35.53364210514459</v>
-      </c>
-      <c r="U9" t="n">
-        <v>12.01226717405452</v>
-      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
       <c r="V9" t="n">
         <v>47.5459092791991</v>
       </c>
@@ -1401,16 +1339,12 @@
       <c r="AB9" t="n">
         <v>0</v>
       </c>
-      <c r="AC9" t="n">
-        <v>43.35550058133683</v>
-      </c>
+      <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="n">
         <v>0</v>
       </c>
       <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="n">
-        <v>43.35550058133683</v>
-      </c>
+      <c r="AF9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1480,12 +1414,8 @@
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="n">
-        <v>38.84893002690349</v>
-      </c>
-      <c r="U10" t="n">
-        <v>6.76642677901321</v>
-      </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
       <c r="V10" t="n">
         <v>45.6153568059167</v>
       </c>
@@ -1503,16 +1433,12 @@
       <c r="AB10" t="n">
         <v>0</v>
       </c>
-      <c r="AC10" t="n">
-        <v>53.17254195089748</v>
-      </c>
+      <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="n">
         <v>0</v>
       </c>
       <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="n">
-        <v>53.17254195089748</v>
-      </c>
+      <c r="AF10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1582,12 +1508,8 @@
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="n">
-        <v>30.65745470783495</v>
-      </c>
-      <c r="U11" t="n">
-        <v>9.527306574785948</v>
-      </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
       <c r="V11" t="n">
         <v>40.1847612826209</v>
       </c>
@@ -1605,16 +1527,12 @@
       <c r="AB11" t="n">
         <v>0</v>
       </c>
-      <c r="AC11" t="n">
-        <v>49.42426537779092</v>
-      </c>
+      <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="n">
         <v>0</v>
       </c>
       <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="n">
-        <v>49.42426537779092</v>
-      </c>
+      <c r="AF11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1684,12 +1602,8 @@
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
-      <c r="T12" t="n">
-        <v>41.6582738340971</v>
-      </c>
-      <c r="U12" t="n">
-        <v>15.4718550591331</v>
-      </c>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
       <c r="V12" t="n">
         <v>57.1301288932302</v>
       </c>
@@ -1710,13 +1624,9 @@
       <c r="AC12" t="n">
         <v>0</v>
       </c>
-      <c r="AD12" t="n">
-        <v>63.46215081774663</v>
-      </c>
+      <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="n">
-        <v>63.46215081774663</v>
-      </c>
+      <c r="AF12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1786,12 +1696,8 @@
       </c>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
-      <c r="T13" t="n">
-        <v>44.32955100860717</v>
-      </c>
-      <c r="U13" t="n">
-        <v>19.88365044101043</v>
-      </c>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
       <c r="V13" t="n">
         <v>64.2132014496176</v>
       </c>
@@ -1812,13 +1718,9 @@
       <c r="AC13" t="n">
         <v>0</v>
       </c>
-      <c r="AD13" t="n">
-        <v>54.10941086783332</v>
-      </c>
+      <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="n">
-        <v>54.10941086783332</v>
-      </c>
+      <c r="AF13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1888,12 +1790,8 @@
       </c>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="n">
-        <v>43.73076126698056</v>
-      </c>
-      <c r="U14" t="n">
-        <v>20.27723907067214</v>
-      </c>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
       <c r="V14" t="n">
         <v>64.0080003376527</v>
       </c>
@@ -1911,16 +1809,12 @@
       <c r="AB14" t="n">
         <v>0</v>
       </c>
-      <c r="AC14" t="n">
-        <v>51.02220809916479</v>
-      </c>
+      <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="n">
         <v>0</v>
       </c>
       <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="n">
-        <v>51.02220809916479</v>
-      </c>
+      <c r="AF14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1990,12 +1884,8 @@
       </c>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
-      <c r="T15" t="n">
-        <v>35.8503542546291</v>
-      </c>
-      <c r="U15" t="n">
-        <v>11.5011068687756</v>
-      </c>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
       <c r="V15" t="n">
         <v>47.3514611234047</v>
       </c>
@@ -2013,16 +1903,12 @@
       <c r="AB15" t="n">
         <v>0</v>
       </c>
-      <c r="AC15" t="n">
-        <v>42.59054801399894</v>
-      </c>
+      <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="n">
         <v>0</v>
       </c>
       <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="n">
-        <v>42.59054801399894</v>
-      </c>
+      <c r="AF15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2092,12 +1978,8 @@
       </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
-      <c r="T16" t="n">
-        <v>41.60795334342968</v>
-      </c>
-      <c r="U16" t="n">
-        <v>12.01226717405452</v>
-      </c>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
       <c r="V16" t="n">
         <v>53.6202205174842</v>
       </c>
@@ -2115,16 +1997,12 @@
       <c r="AB16" t="n">
         <v>0</v>
       </c>
-      <c r="AC16" t="n">
-        <v>44.43409065192614</v>
-      </c>
+      <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="n">
         <v>0</v>
       </c>
       <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="n">
-        <v>44.43409065192614</v>
-      </c>
+      <c r="AF16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2194,12 +2072,8 @@
       </c>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
-      <c r="T17" t="n">
-        <v>32.69588251935448</v>
-      </c>
-      <c r="U17" t="n">
-        <v>11.86852613530472</v>
-      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
       <c r="V17" t="n">
         <v>44.5644086546592</v>
       </c>
@@ -2217,16 +2091,12 @@
       <c r="AB17" t="n">
         <v>0</v>
       </c>
-      <c r="AC17" t="n">
-        <v>41.88494620025153</v>
-      </c>
+      <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="n">
         <v>0</v>
       </c>
       <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="n">
-        <v>41.88494620025153</v>
-      </c>
+      <c r="AF17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2296,12 +2166,8 @@
       </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
-      <c r="T18" t="n">
-        <v>36.10905262918799</v>
-      </c>
-      <c r="U18" t="n">
-        <v>8.145495566677914</v>
-      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
       <c r="V18" t="n">
         <v>44.2545481958659</v>
       </c>
@@ -2322,13 +2188,9 @@
       <c r="AC18" t="n">
         <v>0</v>
       </c>
-      <c r="AD18" t="n">
-        <v>38.2570440785684</v>
-      </c>
+      <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="n">
-        <v>38.2570440785684</v>
-      </c>
+      <c r="AF18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2398,12 +2260,8 @@
       </c>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
-      <c r="T19" t="n">
-        <v>30.84614917684247</v>
-      </c>
-      <c r="U19" t="n">
-        <v>6.941595224040534</v>
-      </c>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
       <c r="V19" t="n">
         <v>37.787744400883</v>
       </c>
@@ -2421,16 +2279,12 @@
       <c r="AB19" t="n">
         <v>0</v>
       </c>
-      <c r="AC19" t="n">
-        <v>57.01058419882103</v>
-      </c>
+      <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="n">
         <v>0</v>
       </c>
       <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="n">
-        <v>57.01058419882103</v>
-      </c>
+      <c r="AF19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2500,12 +2354,8 @@
       </c>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
-      <c r="T20" t="n">
-        <v>31.65114168409437</v>
-      </c>
-      <c r="U20" t="n">
-        <v>6.941595224040534</v>
-      </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
       <c r="V20" t="n">
         <v>38.5927369081349</v>
       </c>
@@ -2520,19 +2370,13 @@
       <c r="AA20" t="n">
         <v>0</v>
       </c>
-      <c r="AB20" t="n">
-        <v>49.78745062104344</v>
-      </c>
+      <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
-      <c r="AD20" t="n">
-        <v>52.89040945602037</v>
-      </c>
+      <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="n">
-        <v>52.89040945602037</v>
-      </c>
+      <c r="AF20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2602,12 +2446,8 @@
       </c>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
-      <c r="T21" t="n">
-        <v>23.04216884551465</v>
-      </c>
-      <c r="U21" t="n">
-        <v>5.201260326808556</v>
-      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
       <c r="V21" t="n">
         <v>28.2434291723232</v>
       </c>
@@ -2625,16 +2465,12 @@
       <c r="AB21" t="n">
         <v>0</v>
       </c>
-      <c r="AC21" t="n">
-        <v>34.4086747738414</v>
-      </c>
+      <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="n">
         <v>0</v>
       </c>
       <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="n">
-        <v>34.4086747738414</v>
-      </c>
+      <c r="AF21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2673,19 +2509,21 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>MRN wharf</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
+          <t>MRN_wharf</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Pt_Lisas</t>
+        </is>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>54405</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2704,12 +2542,8 @@
       </c>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
-      <c r="T22" t="n">
-        <v>36.07488227133514</v>
-      </c>
-      <c r="U22" t="n">
-        <v>15.64488880507676</v>
-      </c>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
       <c r="V22" t="n">
         <v>51.7197710764119</v>
       </c>
@@ -2727,16 +2561,12 @@
       <c r="AB22" t="n">
         <v>0</v>
       </c>
-      <c r="AC22" t="n">
-        <v>47.26137868533452</v>
-      </c>
+      <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="n">
         <v>0</v>
       </c>
       <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="n">
-        <v>47.26137868533452</v>
-      </c>
+      <c r="AF22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2775,19 +2605,21 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Juruti wharf</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
+          <t>Juruti_wharf</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Pt_Lisas</t>
+        </is>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>50895</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2806,12 +2638,8 @@
       </c>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
-      <c r="T23" t="n">
-        <v>31.85587076004086</v>
-      </c>
-      <c r="U23" t="n">
-        <v>16.72384665370274</v>
-      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
       <c r="V23" t="n">
         <v>48.5797174137436</v>
       </c>
@@ -2829,16 +2657,12 @@
       <c r="AB23" t="n">
         <v>0</v>
       </c>
-      <c r="AC23" t="n">
-        <v>43.31549168520069</v>
-      </c>
+      <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="n">
         <v>0</v>
       </c>
       <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="n">
-        <v>43.31549168520069</v>
-      </c>
+      <c r="AF23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2908,12 +2732,8 @@
       </c>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
-      <c r="T24" t="n">
-        <v>55.02918932899118</v>
-      </c>
-      <c r="U24" t="n">
-        <v>19.60287226529682</v>
-      </c>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
       <c r="V24" t="n">
         <v>74.632061594288</v>
       </c>
@@ -2931,16 +2751,12 @@
       <c r="AB24" t="n">
         <v>0</v>
       </c>
-      <c r="AC24" t="n">
-        <v>74.16444984119838</v>
-      </c>
+      <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="n">
         <v>0</v>
       </c>
       <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="n">
-        <v>74.16444984119838</v>
-      </c>
+      <c r="AF24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3010,12 +2826,8 @@
       </c>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="n">
-        <v>23.04216884551465</v>
-      </c>
-      <c r="U25" t="n">
-        <v>5.201260326808556</v>
-      </c>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
       <c r="V25" t="n">
         <v>28.2434291723232</v>
       </c>
@@ -3033,16 +2845,12 @@
       <c r="AB25" t="n">
         <v>0</v>
       </c>
-      <c r="AC25" t="n">
-        <v>34.76701351818878</v>
-      </c>
+      <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="n">
         <v>0</v>
       </c>
       <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="n">
-        <v>34.76701351818878</v>
-      </c>
+      <c r="AF25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3112,12 +2920,8 @@
       </c>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
-      <c r="T26" t="n">
-        <v>33.02635379741837</v>
-      </c>
-      <c r="U26" t="n">
-        <v>6.941595224040534</v>
-      </c>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
       <c r="V26" t="n">
         <v>39.9679490214589</v>
       </c>
@@ -3132,19 +2936,13 @@
       <c r="AA26" t="n">
         <v>0</v>
       </c>
-      <c r="AB26" t="n">
-        <v>44.98101367852247</v>
-      </c>
+      <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="n">
         <v>0</v>
       </c>
-      <c r="AD26" t="n">
-        <v>47.8522155959355</v>
-      </c>
+      <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="n">
-        <v>47.8522155959355</v>
-      </c>
+      <c r="AF26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3183,7 +2981,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -3191,11 +2989,13 @@
           <t>Rondon do Para wharf</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Pt_Lisas</t>
+        </is>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>50895</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -3214,12 +3014,8 @@
       </c>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
-      <c r="T27" t="n">
-        <v>61.93574377688045</v>
-      </c>
-      <c r="U27" t="n">
-        <v>16.72384665370274</v>
-      </c>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
       <c r="V27" t="n">
         <v>78.65959043058319</v>
       </c>
@@ -3237,16 +3033,12 @@
       <c r="AB27" t="n">
         <v>0</v>
       </c>
-      <c r="AC27" t="n">
-        <v>80.92231637394423</v>
-      </c>
+      <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="n">
         <v>0</v>
       </c>
       <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="n">
-        <v>80.92231637394423</v>
-      </c>
+      <c r="AF27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3316,12 +3108,8 @@
       </c>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
-      <c r="T28" t="n">
-        <v>24.53485133152606</v>
-      </c>
-      <c r="U28" t="n">
-        <v>9.85669980950674</v>
-      </c>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
       <c r="V28" t="n">
         <v>34.3915511410328</v>
       </c>
@@ -3339,16 +3127,12 @@
       <c r="AB28" t="n">
         <v>0</v>
       </c>
-      <c r="AC28" t="n">
-        <v>41.58464765984991</v>
-      </c>
+      <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="n">
         <v>0</v>
       </c>
       <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="n">
-        <v>41.58464765984991</v>
-      </c>
+      <c r="AF28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3383,7 +3167,7 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>44999.99999999999</v>
+        <v>45000</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3418,12 +3202,8 @@
       </c>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
-      <c r="T29" t="n">
-        <v>25.0798111202275</v>
-      </c>
-      <c r="U29" t="n">
-        <v>5.066063364042202</v>
-      </c>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
       <c r="V29" t="n">
         <v>30.1458744842697</v>
       </c>
@@ -3441,16 +3221,12 @@
       <c r="AB29" t="n">
         <v>0</v>
       </c>
-      <c r="AC29" t="n">
-        <v>25.76790067159497</v>
-      </c>
+      <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="n">
         <v>0</v>
       </c>
       <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="n">
-        <v>25.76790067159497</v>
-      </c>
+      <c r="AF29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3520,12 +3296,8 @@
       </c>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
-      <c r="T30" t="n">
-        <v>36.80107367486008</v>
-      </c>
-      <c r="U30" t="n">
-        <v>12.01226717405452</v>
-      </c>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
       <c r="V30" t="n">
         <v>48.8133408489146</v>
       </c>
@@ -3543,16 +3315,12 @@
       <c r="AB30" t="n">
         <v>0</v>
       </c>
-      <c r="AC30" t="n">
-        <v>47.66561681625431</v>
-      </c>
+      <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="n">
         <v>0</v>
       </c>
       <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="n">
-        <v>47.66561681625431</v>
-      </c>
+      <c r="AF30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3622,12 +3390,8 @@
       </c>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
-      <c r="T31" t="n">
-        <v>40.76934994116659</v>
-      </c>
-      <c r="U31" t="n">
-        <v>12.01226717405452</v>
-      </c>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
       <c r="V31" t="n">
         <v>52.7816171152211</v>
       </c>
@@ -3645,16 +3409,12 @@
       <c r="AB31" t="n">
         <v>0</v>
       </c>
-      <c r="AC31" t="n">
-        <v>52.07481266770598</v>
-      </c>
+      <c r="AC31" t="inlineStr"/>
       <c r="AD31" t="n">
         <v>0</v>
       </c>
       <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="n">
-        <v>52.07481266770598</v>
-      </c>
+      <c r="AF31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3724,12 +3484,8 @@
       </c>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
-      <c r="T32" t="n">
-        <v>23.04216884551465</v>
-      </c>
-      <c r="U32" t="n">
-        <v>5.201260326808556</v>
-      </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
       <c r="V32" t="n">
         <v>28.2434291723232</v>
       </c>
@@ -3747,16 +3503,12 @@
       <c r="AB32" t="n">
         <v>0</v>
       </c>
-      <c r="AC32" t="n">
-        <v>40.0628791007435</v>
-      </c>
+      <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="n">
         <v>0</v>
       </c>
       <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="n">
-        <v>40.0628791007435</v>
-      </c>
+      <c r="AF32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3826,12 +3578,8 @@
       </c>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
-      <c r="T33" t="n">
-        <v>26.33823333746439</v>
-      </c>
-      <c r="U33" t="n">
-        <v>13.55253866957301</v>
-      </c>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
       <c r="V33" t="n">
         <v>39.8907720070374</v>
       </c>
@@ -3849,61 +3597,53 @@
       <c r="AB33" t="n">
         <v>0</v>
       </c>
-      <c r="AC33" t="n">
-        <v>45.90445491379749</v>
-      </c>
+      <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="n">
         <v>0</v>
       </c>
       <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="n">
-        <v>45.90445491379749</v>
-      </c>
+      <c r="AF33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Amrun HT</t>
+          <t>AMRUN HT</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.055</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.108</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>HT-B</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>62999.99999999997</v>
+        <v>0</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>Amrun HT wharf</t>
-        </is>
+      <c r="L34" t="n">
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -3916,29 +3656,21 @@
           <t>Qingdao</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>CBIX HT</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>CBIX HT</t>
-        </is>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
       </c>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
-      <c r="T34" t="n">
-        <v>24.89767165755462</v>
-      </c>
-      <c r="U34" t="n">
-        <v>6.694408374991275</v>
-      </c>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
       <c r="V34" t="n">
-        <v>31.5920800325459</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
@@ -3955,53 +3687,57 @@
         <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>39.68063609455697</v>
+        <v>0</v>
       </c>
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="n">
-        <v>39.68063609455697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Metro BH1 Xinfa</t>
+          <t>Metro BH1</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>0.513</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.405</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>0.095</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.051</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.05192328721453579</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
+        <v>0.1</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>157950</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>0</v>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Metro BH1 wharf</t>
+        </is>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -4014,21 +3750,25 @@
           <t>Qingdao</t>
         </is>
       </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>CBIX LT</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>CBIX LT</t>
+        </is>
       </c>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>28.2434291723232</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.26616436072679</v>
       </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
@@ -4041,16 +3781,12 @@
       <c r="AB35" t="n">
         <v>0</v>
       </c>
-      <c r="AC35" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="n">
         <v>0</v>
       </c>
       <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4120,12 +3856,8 @@
       </c>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
-      <c r="T36" t="n">
-        <v>31.76136263962621</v>
-      </c>
-      <c r="U36" t="n">
-        <v>11.90969636110329</v>
-      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
       <c r="V36" t="n">
         <v>43.6710590007295</v>
       </c>
@@ -4143,16 +3875,12 @@
       <c r="AB36" t="n">
         <v>0</v>
       </c>
-      <c r="AC36" t="n">
-        <v>35.31730446500561</v>
-      </c>
+      <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="n">
         <v>0</v>
       </c>
       <c r="AE36" t="inlineStr"/>
-      <c r="AF36" t="n">
-        <v>35.31730446500561</v>
-      </c>
+      <c r="AF36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4222,12 +3950,8 @@
       </c>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
-      <c r="T37" t="n">
-        <v>30.35939367571939</v>
-      </c>
-      <c r="U37" t="n">
-        <v>12.01226717405452</v>
-      </c>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
       <c r="V37" t="n">
         <v>42.3716608497739</v>
       </c>
@@ -4245,61 +3969,53 @@
       <c r="AB37" t="n">
         <v>0</v>
       </c>
-      <c r="AC37" t="n">
-        <v>42.86982393864201</v>
-      </c>
+      <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="n">
         <v>0</v>
       </c>
       <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="n">
-        <v>42.86982393864201</v>
-      </c>
+      <c r="AF37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SMB Santou-Houda</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.055</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>LT</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>157950</v>
+        <v>0</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>SMB Santou-Houda wharf</t>
-        </is>
+      <c r="L38" t="n">
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -4312,29 +4028,21 @@
           <t>Qingdao</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>CBIX LT</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>CBIX LT</t>
-        </is>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
       </c>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
-      <c r="T38" t="n">
-        <v>41.04274869913849</v>
-      </c>
-      <c r="U38" t="n">
-        <v>12.01226717405452</v>
-      </c>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
       <c r="V38" t="n">
-        <v>53.055015873193</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
@@ -4348,14 +4056,14 @@
         <v>0</v>
       </c>
       <c r="AC38" t="n">
-        <v>49.18867226909509</v>
+        <v>0</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
       </c>
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="n">
-        <v>49.18867226909509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -4426,12 +4134,8 @@
       </c>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
-      <c r="T39" t="n">
-        <v>39.28902985253418</v>
-      </c>
-      <c r="U39" t="n">
-        <v>12.01226717405452</v>
-      </c>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
       <c r="V39" t="n">
         <v>51.3012970265887</v>
       </c>
@@ -4449,16 +4153,12 @@
       <c r="AB39" t="n">
         <v>0</v>
       </c>
-      <c r="AC39" t="n">
-        <v>48.44851841818487</v>
-      </c>
+      <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="n">
         <v>0</v>
       </c>
       <c r="AE39" t="inlineStr"/>
-      <c r="AF39" t="n">
-        <v>48.44851841818487</v>
-      </c>
+      <c r="AF39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4528,12 +4228,8 @@
       </c>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
-      <c r="T40" t="n">
-        <v>45.23088393911058</v>
-      </c>
-      <c r="U40" t="n">
-        <v>12.01226717405452</v>
-      </c>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
       <c r="V40" t="n">
         <v>57.2431511131651</v>
       </c>
@@ -4551,16 +4247,12 @@
       <c r="AB40" t="n">
         <v>0</v>
       </c>
-      <c r="AC40" t="n">
-        <v>55.28654939981757</v>
-      </c>
+      <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="n">
         <v>0</v>
       </c>
       <c r="AE40" t="inlineStr"/>
-      <c r="AF40" t="n">
-        <v>55.28654939981757</v>
-      </c>
+      <c r="AF40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4630,12 +4322,8 @@
       </c>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
-      <c r="T41" t="n">
-        <v>38.24596442418049</v>
-      </c>
-      <c r="U41" t="n">
-        <v>12.01226717405452</v>
-      </c>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
       <c r="V41" t="n">
         <v>50.258231598235</v>
       </c>
@@ -4653,16 +4341,12 @@
       <c r="AB41" t="n">
         <v>0</v>
       </c>
-      <c r="AC41" t="n">
-        <v>52.63095715563643</v>
-      </c>
+      <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="n">
         <v>0</v>
       </c>
       <c r="AE41" t="inlineStr"/>
-      <c r="AF41" t="n">
-        <v>52.63095715563643</v>
-      </c>
+      <c r="AF41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4732,12 +4416,8 @@
       </c>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
-      <c r="T42" t="n">
-        <v>42.31374615910919</v>
-      </c>
-      <c r="U42" t="n">
-        <v>12.01226717405452</v>
-      </c>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
       <c r="V42" t="n">
         <v>54.3260133331637</v>
       </c>
@@ -4755,61 +4435,53 @@
       <c r="AB42" t="n">
         <v>0</v>
       </c>
-      <c r="AC42" t="n">
-        <v>53.79080846541999</v>
-      </c>
+      <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="n">
         <v>0</v>
       </c>
       <c r="AE42" t="inlineStr"/>
-      <c r="AF42" t="n">
-        <v>53.79080846541999</v>
-      </c>
+      <c r="AF42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SMB SH no rail capital</t>
+          <t>Weiqiao Self Supply</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.055</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>LT</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>157950</v>
+        <v>0</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>SMB SH no rail capital wharf</t>
-        </is>
+      <c r="L43" t="n">
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -4822,29 +4494,21 @@
           <t>Qingdao</t>
         </is>
       </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>CBIX LT</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>CBIX LT</t>
-        </is>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
       </c>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
-      <c r="T43" t="n">
-        <v>34.27589693566468</v>
-      </c>
-      <c r="U43" t="n">
-        <v>12.01226717405452</v>
-      </c>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
       <c r="V43" t="n">
-        <v>46.2881641097192</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
@@ -4858,14 +4522,14 @@
         <v>0</v>
       </c>
       <c r="AC43" t="n">
-        <v>42.02377040188754</v>
+        <v>0</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
       </c>
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="n">
-        <v>42.02377040188754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4936,12 +4600,8 @@
       </c>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
-      <c r="T44" t="n">
-        <v>36.78814016783249</v>
-      </c>
-      <c r="U44" t="n">
-        <v>12.01226717405452</v>
-      </c>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
       <c r="V44" t="n">
         <v>48.800407341887</v>
       </c>
@@ -4959,21 +4619,17 @@
       <c r="AB44" t="n">
         <v>0</v>
       </c>
-      <c r="AC44" t="n">
-        <v>46.13176699722685</v>
-      </c>
+      <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="n">
         <v>0</v>
       </c>
       <c r="AE44" t="inlineStr"/>
-      <c r="AF44" t="n">
-        <v>46.13176699722685</v>
-      </c>
+      <c r="AF44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SPIC</t>
+          <t>Mokanji</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -4992,10 +4648,10 @@
         <v>0.005</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03</v>
+        <v>0.00899999999999998</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -5003,7 +4659,7 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>157950</v>
+        <v>68233.3333333333</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -5012,7 +4668,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>SPIC wharf</t>
+          <t>Mokanji wharf</t>
         </is>
       </c>
       <c r="M45" t="n">
@@ -5038,14 +4694,10 @@
       </c>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
-      <c r="T45" t="n">
-        <v>41.85253463277088</v>
-      </c>
-      <c r="U45" t="n">
-        <v>12.01226717405452</v>
-      </c>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
       <c r="V45" t="n">
-        <v>53.8648018068254</v>
+        <v>55.2999326144731</v>
       </c>
       <c r="W45" t="n">
         <v>0.33</v>
@@ -5061,21 +4713,17 @@
       <c r="AB45" t="n">
         <v>0</v>
       </c>
-      <c r="AC45" t="n">
-        <v>54.79016971264573</v>
-      </c>
+      <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="n">
         <v>0</v>
       </c>
       <c r="AE45" t="inlineStr"/>
-      <c r="AF45" t="n">
-        <v>54.79016971264573</v>
-      </c>
+      <c r="AF45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Mokanji</t>
+          <t>SMB Santou-Houda</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -5094,10 +4742,10 @@
         <v>0.005</v>
       </c>
       <c r="G46" t="n">
-        <v>0.00899999999999998</v>
+        <v>0.02</v>
       </c>
       <c r="H46" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -5105,7 +4753,7 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>68233.3333333333</v>
+        <v>157950</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -5114,7 +4762,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Mokanji wharf</t>
+          <t>SMB Santou-Houda wharf</t>
         </is>
       </c>
       <c r="M46" t="n">
@@ -5140,14 +4788,10 @@
       </c>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
-      <c r="T46" t="n">
-        <v>38.6802754480989</v>
-      </c>
-      <c r="U46" t="n">
-        <v>16.6196571663742</v>
-      </c>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
       <c r="V46" t="n">
-        <v>55.2999326144731</v>
+        <v>53.055015873193</v>
       </c>
       <c r="W46" t="n">
         <v>0.33</v>
@@ -5163,16 +4807,294 @@
       <c r="AB46" t="n">
         <v>0</v>
       </c>
-      <c r="AC46" t="n">
-        <v>51.40378975733022</v>
-      </c>
+      <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="n">
         <v>0</v>
       </c>
       <c r="AE46" t="inlineStr"/>
-      <c r="AF46" t="n">
-        <v>51.40378975733022</v>
-      </c>
+      <c r="AF46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>CBK Kindia</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>35000.00000000001</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>CBK Kindia wharf</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>CBIX LT</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>CBIX LT</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="n">
+        <v>68.3412731086629</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>SPIC</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>157950</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>SPIC wharf</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>CBIX LT</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>CBIX LT</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="n">
+        <v>53.8648018068254</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="inlineStr"/>
+      <c r="AD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="inlineStr"/>
+      <c r="AF48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>SPIC</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>157950</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>SPIC wharf</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>CBIX LT</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>CBIX LT</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="n">
+        <v>53.8648018068254</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="inlineStr"/>
+      <c r="AF49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
